--- a/va_facility_data_2025-02-20/Martinsville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Martinsville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Martinsville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Martinsville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra954abfade73417d9be5e1cc779b4e48"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1c0067d5b1aa44a38a88c31c8b3e23b9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R27568f92a9a5473390dc636cb17b4991"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfc9bdcd044e643699d26448d9fa915a7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9e14808c6a8543cfb7cad1af63f5f5bf"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdfdb13c908c24a4580785ed6167de9f0"/>
   </x:sheets>
 </x:workbook>
 </file>
